--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729037.75089524</v>
+        <v>1835111.349048083</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.10522832</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10167918.13238795</v>
+        <v>10183070.04751568</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>331.9916838480436</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>123.1935463647634</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247721</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>5.883052481151482</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>112.7469194612883</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>135.912078126276</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>336.9399104933181</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>133.842929316343</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.1832968286575</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>114.9470312412308</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.64702742148587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>52.23490948285971</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>136.9973915638136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.4564809702492</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>66.12869588327256</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>247.8166099773759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>57.65182679923952</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>61.6215214068367</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.7072979240948</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>12.76515480631789</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.7243167060843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986356</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>35.19779014107644</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>166.1566063360908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.75513637219716</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022936</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>13.94435783112388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>45.66054613217651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14.53306611597336</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>173.1053154594631</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>3.453391420151112</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1628.17820394412</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.901402779182</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2437.901402779182</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2106.838515435611</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008242</v>
+        <v>1716.699183459799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1630.503642820809</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1630.503642820809</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1630.503642820809</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.125814008748</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.136263110731</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.3436839672011</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>518.088788808554</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>518.088788808554</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1501.251241977181</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1278.272761171916</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.704169472182</v>
+        <v>989.1544236757543</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.704169472182</v>
+        <v>989.1544236757543</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.286999435222</v>
+        <v>699.7372536387937</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2974485372046</v>
+        <v>699.7372536387937</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2974485372046</v>
+        <v>699.7372536387937</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495.089731832625</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.127214892214</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="D8" t="n">
-        <v>767.8615162854633</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.689571896747</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.2677753977071</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C10" t="n">
-        <v>384.3315924698002</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>955.7088193714769</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>734.9162402279468</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2091.550948547922</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2091.550948547922</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>913.2907898187001</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>996.5276398439756</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.968683817745</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1178.176104674215</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5706,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1794.18697620015</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1539.502487994263</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.085317957303</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2313.646285131726</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2808.971891347485</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3406.350378974037</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3110.333886317437</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>2941.39770338953</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4565.553280166915</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>4345.951815189856</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>4056.876588534054</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>3802.192100328167</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>3512.774930291207</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>3512.774930291207</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>3291.982351147677</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.4644740681603</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C25" t="n">
-        <v>465.5282911402533</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2317.673418815656</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1808.996727182795</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V25" t="n">
-        <v>1554.312238976908</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W25" t="n">
-        <v>1264.895068939947</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X25" t="n">
-        <v>1036.90551804193</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.1129388984</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643293</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6680,52 +6682,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6765,37 +6767,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3027.428036214345</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>2858.491853286439</v>
+        <v>526.5658826423961</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.375213874103</v>
+        <v>526.5658826423961</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>378.652789060003</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>378.652789060003</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>211.4566897748829</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3947.275801123094</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3657.858631086133</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3429.869080188115</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3209.076501044585</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913446</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539998</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094605</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232885</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408954</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7090,16 +7092,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.19898568143</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675049</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>862.3241387471426</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>712.2074993348068</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>564.2944057524137</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>417.4044582545033</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>250.2083589693833</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>108.4965278115813</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505289</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,28 +7648,28 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M45" t="n">
         <v>1231.938859683105</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3568999154069</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>709.4207169875</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>559.3040775751642</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>411.3909839927711</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>264.5010364948607</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>97.30493720974067</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>30.36925650589393</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>112.9489693570391</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.70876137138006</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>38.36786441186825</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3744592024051</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.726664722474339</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>212.9445005827193</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.107663475853</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>105.0969227051474</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>85.98103698773716</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.8603366460152</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>66.73277020259218</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>113.4176828771279</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8413214260728</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>890549.1741492649</v>
+        <v>898273.679900657</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>890549.1741492649</v>
+        <v>898273.679900657</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119166</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819047</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309559</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26448,16 +26450,16 @@
         <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="O4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-970389.7827936901</v>
+        <v>-789008.4983343561</v>
       </c>
       <c r="C6" t="n">
-        <v>358354.9629339029</v>
+        <v>325743.2852415635</v>
       </c>
       <c r="D6" t="n">
-        <v>358354.9629339027</v>
+        <v>165727.8224935647</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677473</v>
+        <v>109561.7067677474</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751024</v>
+        <v>434974.1685751025</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751029</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751026</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751028</v>
       </c>
       <c r="J6" t="n">
-        <v>217442.9661778249</v>
+        <v>267368.9907651199</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751028</v>
       </c>
       <c r="L6" t="n">
-        <v>434974.1685751025</v>
+        <v>386680.1985669121</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.1406395907</v>
+        <v>349919.1406395906</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751024</v>
+        <v>434974.1685751026</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751024</v>
+        <v>434974.1685751029</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751025</v>
+        <v>434974.1685751026</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.28120792296392</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>83.46463861547035</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>95.67451993842214</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>173.7760788753027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>213.328890591137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>49.29802816273553</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>60.81953104539446</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02854137695533154</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>239.7360103794521</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>316.5909112345677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>115.0119116157681</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>88.7122638252236</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29800,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29907,7 +29909,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-5.540917888202e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30153,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>477.8500485393217</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>218.9428233593769</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.537151478685</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>193.1175412796309</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>533.6019216798002</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>365.793938502017</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>339.2956687594475</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>81.10138438501788</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>134.2025531565914</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>61.77582919629761</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>395.047541899926</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835111.349048083</v>
+        <v>1831015.707543319</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.10522832</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.99112361440214</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1935463647634</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.883052481151482</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>174.0142547559269</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>101.3021094674224</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.9399104933181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>69.63957399764126</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>133.842929316343</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.9470312412308</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>198.7866240250368</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>52.23490948285971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>206.6447768750174</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.7122866515512</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>158.4589496224476</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.7072979240948</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704672982</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>133.1319933510086</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986356</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.19779014107644</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>201.7038532276742</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>97.75513637219716</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022936</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W43" t="n">
-        <v>173.1053154594631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>108.5813113004301</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.901402779182</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.901402779182</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.838515435611</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.838515435611</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.838515435611</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.699183459799</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
         <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1630.503642820809</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1630.503642820809</v>
+        <v>1358.090739089143</v>
       </c>
       <c r="T4" t="n">
-        <v>1630.503642820809</v>
+        <v>1358.090739089143</v>
       </c>
       <c r="U4" t="n">
-        <v>1341.385305324647</v>
+        <v>1358.090739089143</v>
       </c>
       <c r="V4" t="n">
-        <v>1341.385305324647</v>
+        <v>1358.090739089143</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.385305324647</v>
+        <v>1068.673569052182</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>840.6840181541648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>619.8914390106347</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1677.574522601423</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1308.612005661012</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>950.3463070542614</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>564.5580544560171</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>153.5721496664095</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796629</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.970074863985</v>
+        <v>2064.174362665545</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507741</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.088788808554</v>
+        <v>903.4321187182921</v>
       </c>
       <c r="C7" t="n">
-        <v>518.088788808554</v>
+        <v>734.4959357903853</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962183</v>
+        <v>584.3792963780495</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>436.4662027956564</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>289.576255297746</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>121.5897906060246</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1501.251241977181</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1278.272761171916</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>989.1544236757543</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>989.1544236757543</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>699.7372536387937</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X7" t="n">
-        <v>699.7372536387937</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.7372536387937</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.047335491682</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3124.811251886912</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4883,10 +4883,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4904,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5135,7 +5135,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>593.6115863900017</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6399,37 +6399,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>781.8178837532263</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6767,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826423961</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5658826423961</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>378.652789060003</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>378.652789060003</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>211.4566897748829</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2243.221817693721</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1954.146591037919</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1699.462102832032</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="35">
@@ -6922,40 +6922,40 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154069</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>878.3568999154069</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232885</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.847511649361</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1030.857960751344</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>810.0653816078141</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565533</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2337.284991357604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.683526380545</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.608299724743</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.923811518856</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.506641481895</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>105.1672460959155</v>
       </c>
       <c r="O3" t="n">
-        <v>30.36925650589393</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>11.93987647707743</v>
       </c>
     </row>
     <row r="14">
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>37.70876137138006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>6.726664722474339</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194592</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>85.45266000108614</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.0969227051474</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>15.70159709961405</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>50.8603366460152</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W43" t="n">
-        <v>113.4176828771279</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>72.44497470121448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875611.8662119167</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875611.8662119166</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
         <v>544823.954790754</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819047</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769832</v>
@@ -26429,37 +26429,37 @@
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.25639174426</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="N4" t="n">
+        <v>8727.256391744244</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789008.4983343561</v>
+        <v>-789008.4983343557</v>
       </c>
       <c r="C6" t="n">
-        <v>325743.2852415635</v>
+        <v>325743.2852415637</v>
       </c>
       <c r="D6" t="n">
         <v>165727.8224935647</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677474</v>
+        <v>109214.3275133906</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751025</v>
+        <v>434626.7893207457</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751029</v>
+        <v>434626.7893207456</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751026</v>
+        <v>434626.7893207458</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751028</v>
+        <v>434626.7893207456</v>
       </c>
       <c r="J6" t="n">
-        <v>267368.9907651199</v>
+        <v>267021.6115107631</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751028</v>
+        <v>434626.7893207454</v>
       </c>
       <c r="L6" t="n">
-        <v>386680.1985669121</v>
+        <v>386332.819312555</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.1406395906</v>
+        <v>349571.7613852335</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751026</v>
+        <v>434626.7893207458</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751029</v>
+        <v>434626.7893207457</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751026</v>
+        <v>434626.7893207457</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.6919180062808</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>83.46463861547035</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>95.67451993842214</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>20.6482056058106</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>310.2455933055317</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.29802816273553</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>77.61193515748761</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>60.81953104539446</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.7360103794521</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>52.20854793386513</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.0119116157681</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29909,7 +29909,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.540917888202e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-4.38390964982808e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.537151478685</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,13 +33523,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551114</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779101</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,13 +34234,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6019216798002</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>496.3643456887894</v>
       </c>
       <c r="O3" t="n">
-        <v>365.793938502017</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>484.1293732522352</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36767,7 +36767,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342406</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075244</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334657</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>395.047541899926</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831015.707543319</v>
+        <v>1832776.237846103</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.99112361440214</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>5.441639119995293</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>174.0142547559269</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>101.3021094674224</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>266.182559970798</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>69.63957399764126</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>198.7866240250368</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6447768750174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>75.94597652115795</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704672982</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>281.4276603350231</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>171.6971896214536</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.1319933510086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>201.7038532276742</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>134.3852063573442</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>193.5578088304746</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.250531453059</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2556.842723228443</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2348.097081834267</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>619.8914390106347</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1358.090739089143</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="T4" t="n">
-        <v>1358.090739089143</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1358.090739089143</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1358.090739089143</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>1068.673569052182</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>840.6840181541648</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>619.8914390106347</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1677.574522601423</v>
+        <v>1922.158427600212</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.612005661012</v>
+        <v>1553.1959106598</v>
       </c>
       <c r="D5" t="n">
-        <v>950.3463070542614</v>
+        <v>1194.930212053049</v>
       </c>
       <c r="E5" t="n">
-        <v>564.5580544560171</v>
+        <v>809.1419594548051</v>
       </c>
       <c r="F5" t="n">
-        <v>153.5721496664095</v>
+        <v>398.1560546651976</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>386.4917084298905</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664333</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664333</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664333</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>2308.758267664333</v>
       </c>
       <c r="Y5" t="n">
-        <v>2064.174362665545</v>
+        <v>2308.758267664333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605186</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.4321187182921</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>734.4959357903853</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>584.3792963780495</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>436.4662027956564</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>289.576255297746</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>121.5897906060246</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.862713590079</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.873162692062</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.080583548532</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3124.811251886912</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4883,16 +4883,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5035,52 +5035,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978459</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>422.7903292978459</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6399,37 +6399,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1216.476705421646</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>988.4871545236284</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532263</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.8178837532263</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.221817693721</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1954.146591037919</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1699.462102832032</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1410.044932795071</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1182.055381897054</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>961.2628027535235</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7417,19 +7417,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>105.1672460959155</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>70.03064962107845</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>114.3555089013358</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.93987647707743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>141.4594738061303</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194592</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>5.095338001567939</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.44045370237441</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.45266000108614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>15.70159709961405</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>45.44677382459307</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>875611.8662119167</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119169</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769832</v>
@@ -26441,10 +26441,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.25639174426</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744322</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789008.4983343557</v>
+        <v>-789008.4983343561</v>
       </c>
       <c r="C6" t="n">
-        <v>325743.2852415637</v>
+        <v>325743.285241564</v>
       </c>
       <c r="D6" t="n">
-        <v>165727.8224935647</v>
+        <v>165727.8224935643</v>
       </c>
       <c r="E6" t="n">
-        <v>109214.3275133906</v>
+        <v>109526.9688423118</v>
       </c>
       <c r="F6" t="n">
-        <v>434626.7893207457</v>
+        <v>434939.4306496666</v>
       </c>
       <c r="G6" t="n">
-        <v>434626.7893207456</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="H6" t="n">
-        <v>434626.7893207458</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="I6" t="n">
-        <v>434626.7893207456</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="J6" t="n">
-        <v>267021.6115107631</v>
+        <v>267334.2528396844</v>
       </c>
       <c r="K6" t="n">
-        <v>434626.7893207454</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="L6" t="n">
-        <v>386332.819312555</v>
+        <v>386645.4606414762</v>
       </c>
       <c r="M6" t="n">
-        <v>349571.7613852335</v>
+        <v>349884.402714155</v>
       </c>
       <c r="N6" t="n">
-        <v>434626.7893207458</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="O6" t="n">
-        <v>434626.7893207457</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="P6" t="n">
-        <v>434626.7893207457</v>
+        <v>434939.4306496668</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>344.6919180062808</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>118.0105762787991</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>20.6482056058106</v>
+        <v>125.0228863640957</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>310.2455933055317</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>34.83599259160735</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.61193515748761</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>80.94049690661316</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>52.20854793386513</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.38390964982808e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31290,37 +31290,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31396,7 +31396,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>496.3643456887894</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>319.7101787446108</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977088</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,10 +35111,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36767,7 +36767,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
